--- a/bdd.xlsx
+++ b/bdd.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dfa86254be231b4/Documents/Projet/pass-jeunes-admin-panel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_F25DC773A252ABDACC10483CE9D943E05ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19B2AA3C-6992-4536-97AA-21C5549FCEF5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,100 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Excel Administrateur </t>
+  </si>
+  <si>
+    <t>Nom table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeune </t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Formule</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Mot de passe</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Libelle</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>id_ticket_type</t>
+  </si>
+  <si>
+    <t>id_formule</t>
+  </si>
+  <si>
+    <t>Activité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrateur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mot de passe </t>
+  </si>
+  <si>
+    <t>Nom d'utilisateur</t>
+  </si>
+  <si>
+    <t>Etat_ticket</t>
+  </si>
+  <si>
+    <t>Historique</t>
+  </si>
+  <si>
+    <t>ID ticket</t>
+  </si>
+  <si>
+    <t>ID jeune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID type ticket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID formule </t>
+  </si>
+  <si>
+    <t>Partenaires</t>
+  </si>
+  <si>
+    <t>ID partenaire</t>
+  </si>
+  <si>
+    <t>Formule activité</t>
+  </si>
+  <si>
+    <t>ID activité</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +127,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +149,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +511,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>